--- a/php/Data/FoodData.xlsx
+++ b/php/Data/FoodData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2BBA6306-D104-40F9-AABA-27598544916B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E8AA4755-9880-4960-AC74-5DB43F55E22A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Rice</t>
+  </si>
+  <si>
+    <t>Expiration </t>
   </si>
 </sst>
 </file>
@@ -389,18 +392,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,8 +424,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -439,8 +447,11 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -459,8 +470,11 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -479,8 +493,11 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -499,8 +516,11 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -519,8 +539,11 @@
       <c r="F6">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -539,8 +562,11 @@
       <c r="F7">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -559,8 +585,11 @@
       <c r="F8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -579,8 +608,11 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -598,6 +630,9 @@
       </c>
       <c r="F10">
         <v>0</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/php/Data/FoodData.xlsx
+++ b/php/Data/FoodData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E8AA4755-9880-4960-AC74-5DB43F55E22A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9CDEB37D-52E6-4F95-B9CE-274477D6D7FB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -40,34 +40,97 @@
     <t>Vegetable</t>
   </si>
   <si>
-    <t>Pork</t>
-  </si>
-  <si>
-    <t>Beef</t>
-  </si>
-  <si>
-    <t>Chicken</t>
-  </si>
-  <si>
-    <t>Fish</t>
-  </si>
-  <si>
     <t>Apple</t>
   </si>
   <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>Cabage</t>
-  </si>
-  <si>
-    <t>Wheat</t>
-  </si>
-  <si>
-    <t>Rice</t>
-  </si>
-  <si>
     <t>Expiration </t>
+  </si>
+  <si>
+    <t>bacon</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>beef</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>carrot</t>
+  </si>
+  <si>
+    <t>cereal</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>cucumber</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>hamburger</t>
+  </si>
+  <si>
+    <t>hot_dog</t>
+  </si>
+  <si>
+    <t>ice_cream</t>
+  </si>
+  <si>
+    <t>lettuce</t>
+  </si>
+  <si>
+    <t>mango</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>oatmeal</t>
+  </si>
+  <si>
+    <t>onion</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>pasta</t>
+  </si>
+  <si>
+    <t>pork</t>
+  </si>
+  <si>
+    <t>potato</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>soy_milk</t>
+  </si>
+  <si>
+    <t>strawberry</t>
+  </si>
+  <si>
+    <t>tomato</t>
+  </si>
+  <si>
+    <t>tortilla</t>
+  </si>
+  <si>
+    <t>yogurt</t>
   </si>
 </sst>
 </file>
@@ -392,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +488,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -439,13 +502,13 @@
         <v>30</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>10</v>
@@ -453,7 +516,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>30</v>
@@ -476,7 +539,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -485,13 +548,13 @@
         <v>30</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -499,7 +562,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>30</v>
@@ -522,7 +585,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -534,10 +597,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -545,7 +608,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>14</v>
@@ -568,7 +631,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>23</v>
@@ -580,10 +643,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -591,7 +654,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>18</v>
@@ -614,24 +677,507 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
         <v>14</v>
       </c>
-      <c r="B10">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>30</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>30</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>30</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>40</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>40</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>30</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>30</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>23</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>20</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>30</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>30</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>23</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>20</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>30</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
         <v>10</v>
       </c>
     </row>
